--- a/excel/persons.xlsx
+++ b/excel/persons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>reymartyyy@gmail.com</t>
+  </si>
+  <si>
+    <t>COCOW</t>
+  </si>
+  <si>
+    <t>cocow@gmail.com</t>
+  </si>
+  <si>
+    <t>User created with name: COCOW</t>
   </si>
 </sst>
 </file>
@@ -493,6 +502,11 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" max="2" min="2" width="25"/>
+    <col customWidth="true" max="4" min="4" width="30"/>
+    <col customWidth="true" max="6" min="6" width="40"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1023,6 +1037,29 @@
         <v>45543.76290483219</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>92.6580500302472</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45544.44609558647</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>